--- a/Capgemini.xlsx
+++ b/Capgemini.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -20,10 +20,10 @@
     <t>vendredi</t>
   </si>
   <si>
-    <t>Cloud - C (KRTA9AA3)</t>
-  </si>
-  <si>
-    <t>KRTA9AA3</t>
+    <t>Cloud - C (KRTA9AA3/KUPT9BB1)</t>
+  </si>
+  <si>
+    <t>KRTA9AA3/KUPT9BB1</t>
   </si>
   <si>
     <t>Capgemini</t>
@@ -32,10 +32,16 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
     <t>15:45</t>
+  </si>
+  <si>
+    <t>U3-4</t>
   </si>
   <si>
     <t>mardi</t>
@@ -129,10 +135,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -147,15 +155,17 @@
         <v>4</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F4" s="0"/>
+      <c r="F4" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G4" s="0"/>
       <c r="H4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="0"/>
     </row>
@@ -191,10 +201,12 @@
       <c r="E7" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F7" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G7" s="0"/>
       <c r="H7" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="0"/>
     </row>
@@ -209,15 +221,17 @@
         <v>4</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F8" s="0"/>
+      <c r="F8" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G8" s="0"/>
       <c r="H8" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="0"/>
     </row>
@@ -234,7 +248,7 @@
         <v>45979.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -248,15 +262,17 @@
         <v>4</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F11" s="0"/>
+      <c r="F11" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G11" s="0"/>
       <c r="H11" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="0"/>
     </row>
@@ -271,15 +287,17 @@
         <v>4</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F12" s="0"/>
+      <c r="F12" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G12" s="0"/>
       <c r="H12" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="0"/>
     </row>
@@ -296,7 +314,7 @@
         <v>45993.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -315,10 +333,12 @@
       <c r="E15" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F15" s="0"/>
+      <c r="F15" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G15" s="0"/>
       <c r="H15" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" s="0"/>
     </row>
@@ -333,15 +353,17 @@
         <v>4</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F16" s="0"/>
+      <c r="F16" t="s" s="0">
+        <v>9</v>
+      </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" s="0"/>
     </row>
